--- a/data/trans_bre/P16B03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>69,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>271,89%</t>
         </is>
       </c>
     </row>
@@ -642,22 +642,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-13,1; 51,14</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,3; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,12; 132,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-4,54</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-23,73</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -722,27 +722,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-19,09; 0,0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-45,97; -7,68</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,09; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,97; -7,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>93,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,16%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>63,46; 100,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 79,44</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-45,87; 0,0</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 386,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,87; 0,0</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,22</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,22%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 59,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,71; 42,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,53; -5,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 246,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,03; 82,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,53; -5,95</t>
         </is>
       </c>
     </row>
@@ -929,27 +929,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-5,04</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -967,22 +967,22 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>-27,36; 0,0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,36; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>46,94</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1042,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-3,25; 89,01</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,09; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,43%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,59%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 30,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 75,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,71; 30,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,83; 48,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 301,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,9; 66,94</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>56,35</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>38,4</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>129,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,4%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,01; 16,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,33; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,59; 80,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,19; 21,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,52; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,48; 506,85</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,98</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,32%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,7; 24,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,41; 29,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 29,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 37,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,79; 46,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 48,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,47; 62,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,57; 296,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 42,65</t>
+          <t>-18,09; 51,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 82,83</t>
+          <t>-18,25; 118,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P16B03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,27 +642,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 51,14</t>
+          <t>-13,13; 47,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 62,69</t>
+          <t>-12,02; 66,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 100,0</t>
+          <t>-9,01; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 132,05</t>
+          <t>-13,14; 90,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 296,67</t>
+          <t>-12,02; 303,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 0,0</t>
+          <t>-22,52; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,97; -7,68</t>
+          <t>-43,66; -10,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 0,0</t>
+          <t>-22,52; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,97; -7,68</t>
+          <t>-43,66; -10,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,46; 100,0</t>
+          <t>65,57; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,44</t>
+          <t>0,0; 80,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-45,87; 0,0</t>
+          <t>-45,04; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 386,37</t>
+          <t>0,0; 405,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,87; 0,0</t>
+          <t>-45,04; 0,0</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 59,45</t>
+          <t>-4,35; 59,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 51,42</t>
+          <t>-17,41; 65,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,53; -5,95</t>
+          <t>-31,27; -6,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 246,61</t>
+          <t>-5,94; 187,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 118,02</t>
+          <t>-18,08; 270,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,53; -5,95</t>
+          <t>-31,27; -6,17</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 0,0</t>
+          <t>-25,68; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 0,0</t>
+          <t>-25,68; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 89,01</t>
+          <t>-2,96; 94,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,09; —</t>
+          <t>-4,03; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 30,43</t>
+          <t>-11,44; 29,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,22</t>
+          <t>0,0; 72,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 30,04</t>
+          <t>-32,0; 30,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 48,63</t>
+          <t>-12,07; 47,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 301,41</t>
+          <t>0,0; 257,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 66,94</t>
+          <t>-38,7; 65,62</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 16,03</t>
+          <t>-26,28; 17,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,33; 100,0</t>
+          <t>15,95; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,59; 80,26</t>
+          <t>5,09; 74,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 21,35</t>
+          <t>-27,77; 22,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,52; —</t>
+          <t>18,98; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,48; 506,85</t>
+          <t>5,87; 406,01</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,7; 24,92</t>
+          <t>2,82; 25,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,41; 29,73</t>
+          <t>2,27; 31,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,76; 29,21</t>
+          <t>0,56; 28,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,07; 37,69</t>
+          <t>3,25; 40,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,79; 46,47</t>
+          <t>2,49; 50,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 48,51</t>
+          <t>0,65; 48,03</t>
         </is>
       </c>
     </row>
